--- a/project/DCR/data/出库单导入成功.xlsx
+++ b/project/DCR/data/出库单导入成功.xlsx
@@ -1178,7 +1178,7 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-12-07</t>
         </is>
       </c>
       <c r="E3" s="7" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-12-07</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">

--- a/project/DCR/data/出库单导入成功.xlsx
+++ b/project/DCR/data/出库单导入成功.xlsx
@@ -1,293 +1,206 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12465" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Delivery order template" sheetId="1" r:id="rId1"/>
+    <sheet name="Delivery order template" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="sequenceData" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="A_Payment_Mode">sequenceData!$A$2:$A$7</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
-  <si>
-    <t>Note：
-1, When delivery product with IMEI/SN (like mobile phone and TV), column E "IMEI" must entry  information;
-2, When delivery product without IMEI/SN (like accessories), column F "Product"and column G "QTY" must entry  information;
-3, When delivery, you can only entry IMEI or Product and QTY;
-4, After input IMEI and import, system will display the material ID  of this IMEI automatically.</t>
-  </si>
-  <si>
-    <t>Seller_ID</t>
-  </si>
-  <si>
-    <t>Warehouse_ID</t>
-  </si>
-  <si>
-    <t>Buyer_ID</t>
-  </si>
-  <si>
-    <t>Sale_Date</t>
-  </si>
-  <si>
-    <t>IMEI</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>QTY</t>
-  </si>
-  <si>
-    <t>Payment Mode</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>SN405554</t>
-  </si>
-  <si>
-    <t>WSN405554</t>
-  </si>
-  <si>
-    <t>SN200000</t>
-  </si>
-  <si>
-    <t>2023-02-02</t>
-  </si>
-  <si>
-    <t>350738611115008</t>
-  </si>
-  <si>
-    <t>Vision 3 32+2 DEEOCE BLACK</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>358870660794284</t>
-  </si>
-  <si>
-    <t>SPARK Go 2021 32+2 MALDIVES BLUE</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Wallet</t>
-  </si>
-  <si>
-    <t>Cheque</t>
-  </si>
-  <si>
-    <t>Wechat</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="24">
     <font>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color indexed="10"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color indexed="10"/>
       <sz val="16"/>
-      <color indexed="20"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
+      <color indexed="20"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -608,181 +521,181 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -838,11 +751,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1102,111 +1078,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="16" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" customWidth="1"/>
+    <col width="11.5" customWidth="1" style="1" min="1" max="1"/>
+    <col width="18.5" customWidth="1" style="1" min="2" max="2"/>
+    <col width="11.875" customWidth="1" style="1" min="3" max="3"/>
+    <col width="12.75" customWidth="1" style="1" min="4" max="4"/>
+    <col width="17.125" customWidth="1" style="1" min="5" max="5"/>
+    <col width="32.625" customWidth="1" style="1" min="6" max="6"/>
+    <col width="6" customWidth="1" style="1" min="7" max="7"/>
+    <col width="19.125" customWidth="1" style="1" min="8" max="8"/>
+    <col width="10" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="90" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+    <row r="1" ht="90" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Note：
+1, When delivery product with IMEI/SN (like mobile phone and TV), column E "IMEI" must entry  information;
+2, When delivery product without IMEI/SN (like accessories), column F "Product"and column G "QTY" must entry  information;
+3, When delivery, you can only entry IMEI or Product and QTY;
+4, After input IMEI and import, system will display the material ID  of this IMEI automatically.</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="21" customHeight="1" spans="1:9">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="21" customHeight="1" s="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Seller_ID</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Warehouse_ID</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Buyer_ID</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Sale_Date</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>IMEI</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>QTY</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Payment Mode</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>Remark</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>SN405554</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>WSN405554</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>SN200000</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>350738611115008</t>
+        </is>
+      </c>
+      <c r="F3" s="7" t="inlineStr">
+        <is>
+          <t>Vision 3 32+2 DEEOCE BLACK</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>9</v>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>SN405554</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>WSN405554</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>SN200000</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>358870660794284</t>
+        </is>
+      </c>
+      <c r="F4" s="7" t="inlineStr">
+        <is>
+          <t>SPARK Go 2021 32+2 MALDIVES BLUE</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1214,63 +1245,78 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5 H2:H4">
+    <dataValidation sqref="H5 H2:H4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>A_Payment_Mode</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Payment Mode</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>16</v>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>19</v>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>20</v>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>21</v>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Wallet</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>22</v>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Cheque</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>23</v>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Wechat</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>